--- a/x1timesx2.xlsx
+++ b/x1timesx2.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Conferences\2018-Conferences\Castelldefels_August\SLIDES\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/es922014/Google Drive/Research/Applications/CREDS_proposal/Numbers_for_Policy_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A121BF-4FCF-46F3-8910-A6424DC82940}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D54595-25E4-524E-AB7C-6C77A34D0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7A3B56EE-4567-4F2E-8667-1947E6FA0C79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7A3B56EE-4567-4F2E-8667-1947E6FA0C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,7 +110,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -89,6 +122,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>y = x1x2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,6 +185,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -151,618 +220,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$100</c:f>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.93910432533893295</c:v>
+                  <c:v>0.16206635491287869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7993817157508176E-2</c:v>
+                  <c:v>0.26470490281346493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92102602954650015</c:v>
+                  <c:v>0.35391993189510706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71047959753933909</c:v>
+                  <c:v>0.78603571055270005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8194134959994176</c:v>
+                  <c:v>0.3605784850770678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35773401561554663</c:v>
+                  <c:v>0.30812186922823104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79348497301944532</c:v>
+                  <c:v>0.39242719717386221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10734234845218937</c:v>
+                  <c:v>0.34628354112841953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87272177570402298</c:v>
+                  <c:v>0.81759385636749893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52571993423023056</c:v>
+                  <c:v>0.10959354234190266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48106673598337413</c:v>
+                  <c:v>0.99127203767644667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56455693149900388</c:v>
+                  <c:v>0.40261200835407651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5492251759874327</c:v>
+                  <c:v>0.61819560000363694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78158575512775486</c:v>
+                  <c:v>0.62116237551765163</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14031374883166092</c:v>
+                  <c:v>0.10568918089779999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68602070943938132</c:v>
+                  <c:v>0.5491488756953673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3510866241001311E-2</c:v>
+                  <c:v>0.37965908086253519</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72304949295282994</c:v>
+                  <c:v>0.80532482144530904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.83575289132032682</c:v>
+                  <c:v>0.68849479819175097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38819905327634174</c:v>
+                  <c:v>0.64057135821058175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35437500530601174</c:v>
+                  <c:v>7.8036148949847117E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62833806663023084</c:v>
+                  <c:v>0.64691267545709308</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47377499124873712</c:v>
+                  <c:v>0.45407061365824186</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.31390343337890236</c:v>
+                  <c:v>0.17779192074457228</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.66629848229623501</c:v>
+                  <c:v>0.51030583108799055</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30302757762302635</c:v>
+                  <c:v>0.47064772298675073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.20143988428534254</c:v>
+                  <c:v>0.74002397962515631</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90945875873109083</c:v>
+                  <c:v>0.3718638688493876</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.45214389162195801</c:v>
+                  <c:v>0.4218404636109353</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.85946288576646157</c:v>
+                  <c:v>0.84033838791322224</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.84347599445698052</c:v>
+                  <c:v>0.61837259130356292</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.12116428999396089</c:v>
+                  <c:v>0.40717445032400068</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99162465383267484</c:v>
+                  <c:v>0.81223230800734536</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.20330831864102539</c:v>
+                  <c:v>0.76455923835749384</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.64474231140639027</c:v>
+                  <c:v>0.19174023000908935</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7660294069765778E-2</c:v>
+                  <c:v>0.94585374417315737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.873129809624556</c:v>
+                  <c:v>0.50261137220710639</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.34651206939318824</c:v>
+                  <c:v>0.626385733474488</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.70717790320952456</c:v>
+                  <c:v>0.29172841057977872</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.88477656238309255</c:v>
+                  <c:v>0.24958109931315176</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.73950922333010138</c:v>
+                  <c:v>0.84680615214365473</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.6142869539148794E-2</c:v>
+                  <c:v>9.2669530138430156E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96975592501488583</c:v>
+                  <c:v>0.31962726465483682</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.48425196810537308</c:v>
+                  <c:v>0.89304881349960386</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.92368890827342653</c:v>
+                  <c:v>0.15964823553357677</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.42624781930264244</c:v>
+                  <c:v>0.74837903553558727</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.57300528186427802</c:v>
+                  <c:v>0.83326237218803967</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2986382597185756</c:v>
+                  <c:v>0.64721022233956327</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0380970526927991E-2</c:v>
+                  <c:v>0.76121210277603435</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.5693920090802216E-2</c:v>
+                  <c:v>0.48827310605405527</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.65453964638211082</c:v>
+                  <c:v>0.94118197246881752</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.91370745915511953</c:v>
+                  <c:v>0.87964073644337326</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.5286937933274687E-2</c:v>
+                  <c:v>0.48654854522878188</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.77881344254581863</c:v>
+                  <c:v>0.62569027860734905</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.27286572256349162</c:v>
+                  <c:v>0.77030009045015002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.82109496681765659</c:v>
+                  <c:v>0.34002481840085497</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3790036091489446</c:v>
+                  <c:v>0.8650702479547161</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.95623178089095728</c:v>
+                  <c:v>0.8587288583862327</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.6695581929431802</c:v>
+                  <c:v>0.70475133797296818</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.67318709365509088</c:v>
+                  <c:v>0.8755134283963496</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2692972161196624</c:v>
+                  <c:v>0.99085518816797391</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.39950020021150801</c:v>
+                  <c:v>0.68136836373474297</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.76835395137698348</c:v>
+                  <c:v>0.52355062375412398</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.42304126040042622</c:v>
+                  <c:v>0.75821515893358227</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.32720809412187424</c:v>
+                  <c:v>0.51803908286362244</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.80041806512405977</c:v>
+                  <c:v>0.99242510559880137</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4434195582680367E-2</c:v>
+                  <c:v>0.93940680362123463</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.8509874734947579</c:v>
+                  <c:v>0.86882872477186524</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.77382144519354046</c:v>
+                  <c:v>0.876227779088667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88547895317630942</c:v>
+                  <c:v>0.48221706628283878</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19278821552339198</c:v>
+                  <c:v>0.51419031337448107</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.93460523492729219</c:v>
+                  <c:v>0.14412649864817306</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.83412099762152525</c:v>
+                  <c:v>0.71646228482181151</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.0097780392281308E-2</c:v>
+                  <c:v>0.52408590804382993</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.75421975847009515</c:v>
+                  <c:v>0.89063458346535196</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.4492729305179335E-2</c:v>
+                  <c:v>4.6885560663380788E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.91844544510846637</c:v>
+                  <c:v>0.88533891687585797</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.78389369736352277</c:v>
+                  <c:v>0.13923988386165498</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.90273018782171444</c:v>
+                  <c:v>0.41441540275683242</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.21373758818938848</c:v>
+                  <c:v>2.3848188127637004E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.60281641630672733</c:v>
+                  <c:v>0.48663193010051842</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.2735192023635182E-2</c:v>
+                  <c:v>0.36683523404789853</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.62796163372693747</c:v>
+                  <c:v>0.21843693094879724</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.11216927480923322</c:v>
+                  <c:v>0.92300556362417219</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9820465188019909</c:v>
+                  <c:v>0.78989146278222766</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.80705846995875163</c:v>
+                  <c:v>0.85593316013336607</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.55010092164109592</c:v>
+                  <c:v>0.55155552388739204</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.67722497274388449</c:v>
+                  <c:v>0.82292517834167245</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.86222383249915857</c:v>
+                  <c:v>0.83080943751718783</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.25672152574365403</c:v>
+                  <c:v>0.50562062372421412</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.55623789648203814</c:v>
+                  <c:v>0.37210442050876236</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.6855075223099546</c:v>
+                  <c:v>0.21632822286703934</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.57859052775082676</c:v>
+                  <c:v>0.42295986621301962</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2177520615562374E-2</c:v>
+                  <c:v>0.4927802212347262</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.8797954828506267E-2</c:v>
+                  <c:v>0.53574935076051677</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1151825562246912</c:v>
+                  <c:v>0.84081915335639201</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.51242488724066471</c:v>
+                  <c:v>0.99360075920724389</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.60220105587052541</c:v>
+                  <c:v>9.6334825668478286E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.1401263700923718E-2</c:v>
+                  <c:v>5.1341596064291117E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.70740037316763782</c:v>
+                  <c:v>0.29507583368494161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.15901997646372534</c:v>
+                  <c:v>-2.400761125984003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2055459286065105</c:v>
+                  <c:v>-8.5652363329903572E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14555018791644067</c:v>
+                  <c:v>3.0111901951364942E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8667841875021761E-2</c:v>
+                  <c:v>8.5439763733165322E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.514590576713378E-2</c:v>
+                  <c:v>3.3107345798548606E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.7247810962476036E-3</c:v>
+                  <c:v>-2.7395717354393712E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.046274010719578E-2</c:v>
+                  <c:v>-3.5648917751160821E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12639932595225439</c:v>
+                  <c:v>2.6024353288345986E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.7645782081602435E-2</c:v>
+                  <c:v>-1.8994122497830775E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.090116817214601E-3</c:v>
+                  <c:v>-0.10683898985934261</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9318018915510539E-3</c:v>
+                  <c:v>-0.12194965868421055</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5560252591611401E-2</c:v>
+                  <c:v>-8.2333343755752759E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9553248678334783E-2</c:v>
+                  <c:v>-1.2055711936143935E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0809978754929227E-2</c:v>
+                  <c:v>-2.9950854887712673E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.4131954635596659E-2</c:v>
+                  <c:v>-6.1981256836538053E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3514393173127352E-2</c:v>
+                  <c:v>1.6758339414628707E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15479781373037907</c:v>
+                  <c:v>-1.0503544609181058E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8996987234777225E-2</c:v>
+                  <c:v>-3.5635630605653054E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.12003724163949844</c:v>
+                  <c:v>5.6934870756977451E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.3330449786478091E-2</c:v>
+                  <c:v>-4.1554372129598033E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1148544509375055E-2</c:v>
+                  <c:v>-0.1931914758692039</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.2009278455766019E-3</c:v>
+                  <c:v>6.6595953186178322E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.0071460226959768E-3</c:v>
+                  <c:v>1.4104727421313469E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8157693410593288E-2</c:v>
+                  <c:v>-0.15679224958888449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.2229287572174519E-2</c:v>
+                  <c:v>3.7096978804048893E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7094015885657359E-2</c:v>
+                  <c:v>8.6172166164532344E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.1299241249334074E-3</c:v>
+                  <c:v>-4.5760000544764728E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.16932128295038321</c:v>
+                  <c:v>4.259944368604259E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.3200677368213003E-2</c:v>
+                  <c:v>-7.0756862908674051E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.2961995438400576E-2</c:v>
+                  <c:v>0.10042039348032028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.11369806860988393</c:v>
+                  <c:v>-2.8616193806854515E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.4311922952264598E-2</c:v>
+                  <c:v>1.024881972250361E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4332448840643466E-2</c:v>
+                  <c:v>-5.0620222756029044E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5.4323620106818162E-3</c:v>
+                  <c:v>-9.3900787232396268E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.8921823036444674E-2</c:v>
+                  <c:v>0.10809791928491098</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.18651504784433084</c:v>
+                  <c:v>-3.8849664376007891E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.10278745183096788</c:v>
+                  <c:v>3.8742887337777884E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.6634791153908574E-3</c:v>
+                  <c:v>1.6703271855609228E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.2282024003884671E-2</c:v>
+                  <c:v>0.10038795996815486</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.13502934902406458</c:v>
+                  <c:v>5.3205228118449695E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9071753987673305E-3</c:v>
+                  <c:v>0.10142681656955356</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.1130526487824762E-2</c:v>
+                  <c:v>6.9841832733957443E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-7.418083418945183E-2</c:v>
+                  <c:v>-5.2653238204859523E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.1490226425929393E-3</c:v>
+                  <c:v>-3.8325300014847505E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11089022158722996</c:v>
+                  <c:v>5.1618874485360233E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7552086177215379E-2</c:v>
+                  <c:v>-2.0384712357765403E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-9.9332813375697087E-3</c:v>
+                  <c:v>0.15367652439549487</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-7.5053049379862874E-2</c:v>
+                  <c:v>1.3968418613849478E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.17949369516166735</c:v>
+                  <c:v>0.1050937115954436</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3116138109995227E-2</c:v>
+                  <c:v>2.9677102252011482E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-7.5837879006256464E-2</c:v>
+                  <c:v>3.16270643635525E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19566900823157901</c:v>
+                  <c:v>0.13443118374852661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.18408952282790206</c:v>
+                  <c:v>-3.2731721732460121E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.3294436046442595E-2</c:v>
+                  <c:v>-4.1047145222474136E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.1710807656629006E-2</c:v>
+                  <c:v>2.8400385698409105E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.8426788340292878E-2</c:v>
+                  <c:v>-2.9420416067922867E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5325412982182596E-2</c:v>
+                  <c:v>0.14660257453439315</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.6493886406207786E-2</c:v>
+                  <c:v>-0.1541806433208173</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8505310231303272E-2</c:v>
+                  <c:v>-9.9107284249190547E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.2303673441212352E-2</c:v>
+                  <c:v>0.10944130478146205</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0786040083431442E-2</c:v>
+                  <c:v>0.17934728403737882</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.4555888977322875E-2</c:v>
+                  <c:v>-4.4412878914904946E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.0935374776478321E-2</c:v>
+                  <c:v>1.7652445178572681E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6421226761551717E-2</c:v>
+                  <c:v>0.12158601619078882</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.9706816046315201E-2</c:v>
+                  <c:v>8.5529464780352074E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9519602666544743E-2</c:v>
+                  <c:v>-0.12217672443523167</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.18776576433344075</c:v>
+                  <c:v>-0.15257927698716747</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.2571663719005858E-2</c:v>
+                  <c:v>9.6775183341159865E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-9.7119856523577422E-2</c:v>
+                  <c:v>-4.7972018509529001E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5811904295142502E-2</c:v>
+                  <c:v>5.7119721670090655E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.13219976509689674</c:v>
+                  <c:v>-8.4934293059291078E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.21035179077948138</c:v>
+                  <c:v>0.14510376231353778</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-3.4276739677242221E-2</c:v>
+                  <c:v>-2.8025550874585937E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.5485676894024315E-2</c:v>
+                  <c:v>2.5392072404001255E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.6132555123744473E-2</c:v>
+                  <c:v>-2.4406014220051522E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.15405084962456825</c:v>
+                  <c:v>0.208793296247924</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.1300840305157511E-2</c:v>
+                  <c:v>0.1114537428808873</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.10711992875798458</c:v>
+                  <c:v>0.18033831766661948</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.6083574750524408E-2</c:v>
+                  <c:v>-6.0464465531635701E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.14177084445616114</c:v>
+                  <c:v>0.1589726130226968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.7724494888934923E-3</c:v>
+                  <c:v>-3.0020045074258144E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.3563853014289408E-2</c:v>
+                  <c:v>-1.7261532258909133E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8585739905879409E-2</c:v>
+                  <c:v>-7.1814415329742712E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.8437329231405543E-2</c:v>
+                  <c:v>-0.11463560820231503</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-7.1851776193197894E-2</c:v>
+                  <c:v>3.3972613314678288E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0949927900549529E-2</c:v>
+                  <c:v>1.6252079289489411E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0383668578162243E-3</c:v>
+                  <c:v>-8.7729459939163458E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.1368380567410003E-3</c:v>
+                  <c:v>6.1775001084752708E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.950650738408252E-2</c:v>
+                  <c:v>1.4508074385449307E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-5.7303954637751169E-2</c:v>
+                  <c:v>1.7305500938055228E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.6849218378892847E-2</c:v>
+                  <c:v>-1.9656304196015918E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-5.5352312924661001E-2</c:v>
+                  <c:v>-0.12791603306881574</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.4513002064220246E-2</c:v>
+                  <c:v>5.986418271489052E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.3169205196158679E-2</c:v>
+                  <c:v>-2.5855415542496507E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-4.961927538733403E-2</c:v>
+                  <c:v>1.1259379691392644E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.18728607019458757</c:v>
+                  <c:v>2.5976270726498423E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.7576853321344477E-3</c:v>
+                  <c:v>7.2099148857630413E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.441497571482432E-2</c:v>
+                  <c:v>1.8707972089145802E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.15613584497806793</c:v>
+                  <c:v>0.16050982292520083</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.0909850932598152E-2</c:v>
+                  <c:v>3.4030157208711095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,6 +846,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -801,618 +881,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$100</c:f>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.1378537689398025</c:v>
+                  <c:v>0.57104238245839867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4970467415935569E-2</c:v>
+                  <c:v>0.86402102871697695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84570353779127905</c:v>
+                  <c:v>0.29386714189000063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58869193068241543</c:v>
+                  <c:v>0.79870313594086584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64134000702091842</c:v>
+                  <c:v>0.26253775597798301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54726907226167887</c:v>
+                  <c:v>0.64277665330698774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56972329757353535</c:v>
+                  <c:v>0.53313934081347458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17809279800354583</c:v>
+                  <c:v>0.33069897993104602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31850863971167676</c:v>
+                  <c:v>0.44019367151783939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41873553025038723</c:v>
+                  <c:v>0.77366091867493647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2395165520736261</c:v>
+                  <c:v>0.25176755579049059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89593351167884738</c:v>
+                  <c:v>0.58454157680455576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10277950690665338</c:v>
+                  <c:v>0.48980020243073941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64492913086606185</c:v>
+                  <c:v>0.2528039974476296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70610171891419249</c:v>
+                  <c:v>0.65718883133275974</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57264993889044002</c:v>
+                  <c:v>0.84097096174690977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16089485535902404</c:v>
+                  <c:v>0.58728157209089382</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89900107396163476</c:v>
+                  <c:v>0.48832861657399307</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14248337172180514</c:v>
+                  <c:v>0.80205008999271721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88756782528487221</c:v>
+                  <c:v>0.20438948119610645</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0095816395594266E-2</c:v>
+                  <c:v>0.95783892479984489</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48285054541207995</c:v>
+                  <c:v>0.95330297728890079</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.80532481794921762</c:v>
+                  <c:v>0.19290407417244948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29495756368098747</c:v>
+                  <c:v>0.98661799527562055</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.5664781934033356E-2</c:v>
+                  <c:v>0.85996105978564163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.36244766877160217</c:v>
+                  <c:v>0.20642084726293897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5071339874712838</c:v>
+                  <c:v>0.30935237964045181</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.6475366957325828E-2</c:v>
+                  <c:v>0.46675454198318911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.77584101205918199</c:v>
+                  <c:v>0.59052876485405259</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.38048280604325746</c:v>
+                  <c:v>0.79506043704339624</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16897812235863741</c:v>
+                  <c:v>0.25825321139190782</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.72255537354416921</c:v>
+                  <c:v>0.38959053021203371</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.56983467686778899</c:v>
+                  <c:v>0.33787640978255784</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.51830978875376377</c:v>
+                  <c:v>0.14506706393858781</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97616914754756245</c:v>
+                  <c:v>0.14932848912429164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.89487480197542313</c:v>
+                  <c:v>0.41286455506153663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.22452629304961502</c:v>
+                  <c:v>0.64836217997704793</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.45007112881714262</c:v>
+                  <c:v>0.63216105486289653</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.84888867434276483</c:v>
+                  <c:v>1.799493993582546E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14907075371803391</c:v>
+                  <c:v>0.28753509430590685</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51213805196453976</c:v>
+                  <c:v>0.79245968084078378</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.60790283231170883</c:v>
+                  <c:v>0.32853766682936092</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.34208643203999789</c:v>
+                  <c:v>0.79191350956729534</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57296293595804659</c:v>
+                  <c:v>0.40249226381423453</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.76172557133751362</c:v>
+                  <c:v>0.34833669199193296</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26201264815151093</c:v>
+                  <c:v>0.41792901396122573</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.36393749761782468</c:v>
+                  <c:v>0.96112773964408005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.87272745693878229</c:v>
+                  <c:v>0.59488755870247345</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.86659869073070639</c:v>
+                  <c:v>0.9023309428566253</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.40072407432332124</c:v>
+                  <c:v>0.24693126424773282</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.2658694278253684E-3</c:v>
+                  <c:v>0.50716871185523971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.97296466114287039</c:v>
+                  <c:v>0.85410105092496624</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.94389612883300733</c:v>
+                  <c:v>0.74333220673272982</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.41645153177069461</c:v>
+                  <c:v>0.17342625318936855</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.6226475846362569E-2</c:v>
+                  <c:v>0.605069834239093</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.31803891565365994</c:v>
+                  <c:v>0.68390612702439402</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.37333991638603559</c:v>
+                  <c:v>0.90157360221964178</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.57998979451834831</c:v>
+                  <c:v>7.0202843411009908E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.60913840204409642</c:v>
+                  <c:v>1.5962702708809839E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.975229832109334</c:v>
+                  <c:v>0.7914444504656919</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.23651796020389448</c:v>
+                  <c:v>0.86537717917734425</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.84384037629973263</c:v>
+                  <c:v>0.25512334124676672</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.38472174671644643</c:v>
+                  <c:v>0.57495531907294617</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.15668321883876013</c:v>
+                  <c:v>0.97087094612467351</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.8712096256786954E-2</c:v>
+                  <c:v>0.97413421972150571</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.56497479656719041</c:v>
+                  <c:v>0.25188770221887513</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.8590272251731874E-2</c:v>
+                  <c:v>0.15276077718930892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.73525530098509084</c:v>
+                  <c:v>0.76238515831709974</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.14531683610488622</c:v>
+                  <c:v>0.37249208810223644</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.72261112724329224</c:v>
+                  <c:v>0.17879472207126368</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.9678730514444842E-2</c:v>
+                  <c:v>0.44014628795158861</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5993426046346571E-2</c:v>
+                  <c:v>9.2260278547449448E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.39741219521896343</c:v>
+                  <c:v>0.48705291737188483</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.53520254321024707</c:v>
+                  <c:v>0.6054229400768053</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.83881141120616942</c:v>
+                  <c:v>0.43752213640803705</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.83819624742670407</c:v>
+                  <c:v>3.920405504267932E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.62259863479182975</c:v>
+                  <c:v>0.78923562609377862</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.87732408205180645</c:v>
+                  <c:v>1.1570126709081752E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.43523312744047038</c:v>
+                  <c:v>0.57064877031534167</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.7521483541632659E-3</c:v>
+                  <c:v>0.1661304040877809</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.53669112019659704</c:v>
+                  <c:v>0.72456529102546308</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.42659865262138374</c:v>
+                  <c:v>0.62962537151244646</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.72339305206808846</c:v>
+                  <c:v>0.75505623152830148</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.54753963013718565</c:v>
+                  <c:v>0.22899739847354506</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.35094431057863884</c:v>
+                  <c:v>0.51171908030289226</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.60079490041328987</c:v>
+                  <c:v>0.54566048098300213</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.52072550411856078</c:v>
+                  <c:v>0.32983499473153877</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.46537261108450212</c:v>
+                  <c:v>0.69129818678737831</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.7194955169998849</c:v>
+                  <c:v>0.54385628927135887</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.7355488080600554</c:v>
+                  <c:v>0.80789289209134674</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.20039387258600028</c:v>
+                  <c:v>0.65369025477039733</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.20161688197109451</c:v>
+                  <c:v>0.95092971307067964</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.81190784393176918</c:v>
+                  <c:v>0.42229480950744736</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.35234715743069833</c:v>
+                  <c:v>0.85811922197474677</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.61780397544634758</c:v>
+                  <c:v>0.81495340340076949</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3311900944017241E-2</c:v>
+                  <c:v>0.57621716816875967</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.19756785237968733</c:v>
+                  <c:v>0.64606774303472814</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.73889161914094814</c:v>
+                  <c:v>0.45365472852562372</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.11787487060708046</c:v>
+                  <c:v>0.14224492059620197</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.39918122801207734</c:v>
+                  <c:v>0.33393780333163925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.15901997646372534</c:v>
+                  <c:v>-2.400761125984003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2055459286065105</c:v>
+                  <c:v>-8.5652363329903572E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14555018791644067</c:v>
+                  <c:v>3.0111901951364942E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8667841875021761E-2</c:v>
+                  <c:v>8.5439763733165322E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.514590576713378E-2</c:v>
+                  <c:v>3.3107345798548606E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.7247810962476036E-3</c:v>
+                  <c:v>-2.7395717354393712E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.046274010719578E-2</c:v>
+                  <c:v>-3.5648917751160821E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12639932595225439</c:v>
+                  <c:v>2.6024353288345986E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.7645782081602435E-2</c:v>
+                  <c:v>-1.8994122497830775E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.090116817214601E-3</c:v>
+                  <c:v>-0.10683898985934261</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9318018915510539E-3</c:v>
+                  <c:v>-0.12194965868421055</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5560252591611401E-2</c:v>
+                  <c:v>-8.2333343755752759E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9553248678334783E-2</c:v>
+                  <c:v>-1.2055711936143935E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0809978754929227E-2</c:v>
+                  <c:v>-2.9950854887712673E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.4131954635596659E-2</c:v>
+                  <c:v>-6.1981256836538053E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3514393173127352E-2</c:v>
+                  <c:v>1.6758339414628707E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15479781373037907</c:v>
+                  <c:v>-1.0503544609181058E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8996987234777225E-2</c:v>
+                  <c:v>-3.5635630605653054E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.12003724163949844</c:v>
+                  <c:v>5.6934870756977451E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.3330449786478091E-2</c:v>
+                  <c:v>-4.1554372129598033E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1148544509375055E-2</c:v>
+                  <c:v>-0.1931914758692039</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.2009278455766019E-3</c:v>
+                  <c:v>6.6595953186178322E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.0071460226959768E-3</c:v>
+                  <c:v>1.4104727421313469E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8157693410593288E-2</c:v>
+                  <c:v>-0.15679224958888449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.2229287572174519E-2</c:v>
+                  <c:v>3.7096978804048893E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7094015885657359E-2</c:v>
+                  <c:v>8.6172166164532344E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.1299241249334074E-3</c:v>
+                  <c:v>-4.5760000544764728E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.16932128295038321</c:v>
+                  <c:v>4.259944368604259E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.3200677368213003E-2</c:v>
+                  <c:v>-7.0756862908674051E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.2961995438400576E-2</c:v>
+                  <c:v>0.10042039348032028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.11369806860988393</c:v>
+                  <c:v>-2.8616193806854515E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.4311922952264598E-2</c:v>
+                  <c:v>1.024881972250361E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4332448840643466E-2</c:v>
+                  <c:v>-5.0620222756029044E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5.4323620106818162E-3</c:v>
+                  <c:v>-9.3900787232396268E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.8921823036444674E-2</c:v>
+                  <c:v>0.10809791928491098</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.18651504784433084</c:v>
+                  <c:v>-3.8849664376007891E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.10278745183096788</c:v>
+                  <c:v>3.8742887337777884E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.6634791153908574E-3</c:v>
+                  <c:v>1.6703271855609228E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.2282024003884671E-2</c:v>
+                  <c:v>0.10038795996815486</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.13502934902406458</c:v>
+                  <c:v>5.3205228118449695E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9071753987673305E-3</c:v>
+                  <c:v>0.10142681656955356</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.1130526487824762E-2</c:v>
+                  <c:v>6.9841832733957443E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-7.418083418945183E-2</c:v>
+                  <c:v>-5.2653238204859523E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.1490226425929393E-3</c:v>
+                  <c:v>-3.8325300014847505E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11089022158722996</c:v>
+                  <c:v>5.1618874485360233E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7552086177215379E-2</c:v>
+                  <c:v>-2.0384712357765403E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-9.9332813375697087E-3</c:v>
+                  <c:v>0.15367652439549487</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-7.5053049379862874E-2</c:v>
+                  <c:v>1.3968418613849478E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.17949369516166735</c:v>
+                  <c:v>0.1050937115954436</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3116138109995227E-2</c:v>
+                  <c:v>2.9677102252011482E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-7.5837879006256464E-2</c:v>
+                  <c:v>3.16270643635525E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19566900823157901</c:v>
+                  <c:v>0.13443118374852661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.18408952282790206</c:v>
+                  <c:v>-3.2731721732460121E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.3294436046442595E-2</c:v>
+                  <c:v>-4.1047145222474136E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.1710807656629006E-2</c:v>
+                  <c:v>2.8400385698409105E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.8426788340292878E-2</c:v>
+                  <c:v>-2.9420416067922867E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5325412982182596E-2</c:v>
+                  <c:v>0.14660257453439315</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.6493886406207786E-2</c:v>
+                  <c:v>-0.1541806433208173</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8505310231303272E-2</c:v>
+                  <c:v>-9.9107284249190547E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.2303673441212352E-2</c:v>
+                  <c:v>0.10944130478146205</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0786040083431442E-2</c:v>
+                  <c:v>0.17934728403737882</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.4555888977322875E-2</c:v>
+                  <c:v>-4.4412878914904946E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.0935374776478321E-2</c:v>
+                  <c:v>1.7652445178572681E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6421226761551717E-2</c:v>
+                  <c:v>0.12158601619078882</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.9706816046315201E-2</c:v>
+                  <c:v>8.5529464780352074E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9519602666544743E-2</c:v>
+                  <c:v>-0.12217672443523167</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.18776576433344075</c:v>
+                  <c:v>-0.15257927698716747</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.2571663719005858E-2</c:v>
+                  <c:v>9.6775183341159865E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-9.7119856523577422E-2</c:v>
+                  <c:v>-4.7972018509529001E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5811904295142502E-2</c:v>
+                  <c:v>5.7119721670090655E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.13219976509689674</c:v>
+                  <c:v>-8.4934293059291078E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.21035179077948138</c:v>
+                  <c:v>0.14510376231353778</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-3.4276739677242221E-2</c:v>
+                  <c:v>-2.8025550874585937E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.5485676894024315E-2</c:v>
+                  <c:v>2.5392072404001255E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.6132555123744473E-2</c:v>
+                  <c:v>-2.4406014220051522E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.15405084962456825</c:v>
+                  <c:v>0.208793296247924</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.1300840305157511E-2</c:v>
+                  <c:v>0.1114537428808873</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.10711992875798458</c:v>
+                  <c:v>0.18033831766661948</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.6083574750524408E-2</c:v>
+                  <c:v>-6.0464465531635701E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.14177084445616114</c:v>
+                  <c:v>0.1589726130226968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.7724494888934923E-3</c:v>
+                  <c:v>-3.0020045074258144E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.3563853014289408E-2</c:v>
+                  <c:v>-1.7261532258909133E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8585739905879409E-2</c:v>
+                  <c:v>-7.1814415329742712E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.8437329231405543E-2</c:v>
+                  <c:v>-0.11463560820231503</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-7.1851776193197894E-2</c:v>
+                  <c:v>3.3972613314678288E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0949927900549529E-2</c:v>
+                  <c:v>1.6252079289489411E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0383668578162243E-3</c:v>
+                  <c:v>-8.7729459939163458E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.1368380567410003E-3</c:v>
+                  <c:v>6.1775001084752708E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.950650738408252E-2</c:v>
+                  <c:v>1.4508074385449307E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-5.7303954637751169E-2</c:v>
+                  <c:v>1.7305500938055228E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.6849218378892847E-2</c:v>
+                  <c:v>-1.9656304196015918E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-5.5352312924661001E-2</c:v>
+                  <c:v>-0.12791603306881574</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.4513002064220246E-2</c:v>
+                  <c:v>5.986418271489052E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.3169205196158679E-2</c:v>
+                  <c:v>-2.5855415542496507E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-4.961927538733403E-2</c:v>
+                  <c:v>1.1259379691392644E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.18728607019458757</c:v>
+                  <c:v>2.5976270726498423E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.7576853321344477E-3</c:v>
+                  <c:v>7.2099148857630413E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.441497571482432E-2</c:v>
+                  <c:v>1.8707972089145802E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.15613584497806793</c:v>
+                  <c:v>0.16050982292520083</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.0909850932598152E-2</c:v>
+                  <c:v>3.4030157208711095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,6 +1519,7 @@
         <c:axId val="440049256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2195,15 +2276,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2529,1412 +2610,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694CE0C3-10FB-46DD-B4C5-9D98FAF203A4}">
-  <dimension ref="C1:E100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.93910432533893295</v>
-      </c>
-      <c r="D1">
+        <v>0.16206635491287869</v>
+      </c>
+      <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.1378537689398025</v>
-      </c>
-      <c r="E1">
-        <f ca="1">(C1-0.5)*(D1-0.5)</f>
-        <v>-0.15901997646372534</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+        <v>0.57104238245839867</v>
+      </c>
       <c r="C2">
-        <f t="shared" ref="C2:D65" ca="1" si="0">RAND()</f>
-        <v>5.7993817157508176E-2</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4970467415935569E-2</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E65" ca="1" si="1">(C2-0.5)*(D2-0.5)</f>
-        <v>0.2055459286065105</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+        <f ca="1">(A2-0.5)*(B2-0.5)</f>
+        <v>-2.400761125984003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:B66" ca="1" si="0">RAND()</f>
+        <v>0.26470490281346493</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86402102871697695</v>
+      </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92102602954650015</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84570353779127905</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14555018791644067</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C66" ca="1" si="1">(A3-0.5)*(B3-0.5)</f>
+        <v>-8.5652363329903572E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35391993189510706</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29386714189000063</v>
+      </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71047959753933909</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58869193068241543</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8667841875021761E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0111901951364942E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78603571055270005</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79870313594086584</v>
+      </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8194134959994176</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64134000702091842</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.514590576713378E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.5439763733165322E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3605784850770678</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26253775597798301</v>
+      </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35773401561554663</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54726907226167887</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.7247810962476036E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3107345798548606E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30812186922823104</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64277665330698774</v>
+      </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79348497301944532</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56972329757353535</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.046274010719578E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.7395717354393712E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39242719717386221</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53313934081347458</v>
+      </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10734234845218937</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17809279800354583</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12639932595225439</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.5648917751160821E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34628354112841953</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33069897993104602</v>
+      </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87272177570402298</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31850863971167676</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.7645782081602435E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6024353288345986E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81759385636749893</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44019367151783939</v>
+      </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52571993423023056</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41873553025038723</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.090116817214601E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.8994122497830775E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10959354234190266</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77366091867493647</v>
+      </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48106673598337413</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2395165520736261</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9318018915510539E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.10683898985934261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99127203767644667</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25176755579049059</v>
+      </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56455693149900388</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89593351167884738</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5560252591611401E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.12194965868421055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40261200835407651</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58454157680455576</v>
+      </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5492251759874327</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10277950690665338</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.9553248678334783E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.2333343755752759E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61819560000363694</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48980020243073941</v>
+      </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78158575512775486</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64492913086606185</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0809978754929227E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2055711936143935E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62116237551765163</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2528039974476296</v>
+      </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14031374883166092</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70610171891419249</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.4131954635596659E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.9950854887712673E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10568918089779999</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65718883133275974</v>
+      </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68602070943938132</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57264993889044002</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3514393173127352E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.1981256836538053E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5491488756953673</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84097096174690977</v>
+      </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3510866241001311E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16089485535902404</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15479781373037907</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6758339414628707E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37965908086253519</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58728157209089382</v>
+      </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72304949295282994</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89900107396163476</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8996987234777225E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0503544609181058E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80532482144530904</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48832861657399307</v>
+      </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83575289132032682</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14248337172180514</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.12003724163949844</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.5635630605653054E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68849479819175097</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80205008999271721</v>
+      </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38819905327634174</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88756782528487221</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.3330449786478091E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6934870756977451E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64057135821058175</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20438948119610645</v>
+      </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35437500530601174</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.0095816395594266E-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1148544509375055E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.1554372129598033E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8036148949847117E-2</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95783892479984489</v>
+      </c>
       <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62833806663023084</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48285054541207995</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.2009278455766019E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.1931914758692039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64691267545709308</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95330297728890079</v>
+      </c>
       <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47377499124873712</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80532481794921762</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.0071460226959768E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6595953186178322E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45407061365824186</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19290407417244948</v>
+      </c>
       <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31390343337890236</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29495756368098747</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8157693410593288E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4104727421313469E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17779192074457228</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98661799527562055</v>
+      </c>
       <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66629848229623501</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5664781934033356E-2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.2229287572174519E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.15679224958888449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51030583108799055</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85996105978564163</v>
+      </c>
       <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30302757762302635</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36244766877160217</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7094015885657359E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7096978804048893E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47064772298675073</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20642084726293897</v>
+      </c>
       <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20143988428534254</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5071339874712838</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.1299241249334074E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6172166164532344E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74002397962515631</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30935237964045181</v>
+      </c>
       <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90945875873109083</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6475366957325828E-2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.16932128295038321</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.5760000544764728E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3718638688493876</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46675454198318911</v>
+      </c>
       <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45214389162195801</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77584101205918199</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.3200677368213003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.259944368604259E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4218404636109353</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59052876485405259</v>
+      </c>
       <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85946288576646157</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38048280604325746</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.2961995438400576E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.0756862908674051E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84033838791322224</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79506043704339624</v>
+      </c>
       <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84347599445698052</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16897812235863741</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.11369806860988393</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10042039348032028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61837259130356292</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25825321139190782</v>
+      </c>
       <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12116428999396089</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72255537354416921</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.4311922952264598E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.8616193806854515E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40717445032400068</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38959053021203371</v>
+      </c>
       <c r="C33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99162465383267484</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56983467686778899</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4332448840643466E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.024881972250361E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81223230800734536</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33787640978255784</v>
+      </c>
       <c r="C34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20330831864102539</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51830978875376377</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.4323620106818162E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.0620222756029044E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76455923835749384</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14506706393858781</v>
+      </c>
       <c r="C35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64474231140639027</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97616914754756245</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8921823036444674E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.3900787232396268E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19174023000908935</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14932848912429164</v>
+      </c>
       <c r="C36">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7660294069765778E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89487480197542313</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.18651504784433084</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10809791928491098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94585374417315737</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41286455506153663</v>
+      </c>
       <c r="C37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.873129809624556</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22452629304961502</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.10278745183096788</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.8849664376007891E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50261137220710639</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64836217997704793</v>
+      </c>
       <c r="C38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34651206939318824</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45007112881714262</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6634791153908574E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8742887337777884E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.626385733474488</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63216105486289653</v>
+      </c>
       <c r="C39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70717790320952456</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84888867434276483</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.2282024003884671E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6703271855609228E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29172841057977872</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.799493993582546E-2</v>
+      </c>
       <c r="C40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88477656238309255</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14907075371803391</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.13502934902406458</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10038795996815486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24958109931315176</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28753509430590685</v>
+      </c>
       <c r="C41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73950922333010138</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51213805196453976</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9071753987673305E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3205228118449695E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84680615214365473</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79245968084078378</v>
+      </c>
       <c r="C42">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6142869539148794E-2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60790283231170883</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.1130526487824762E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10142681656955356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2669530138430156E-2</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32853766682936092</v>
+      </c>
       <c r="C43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96975592501488583</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34208643203999789</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.418083418945183E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9841832733957443E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31962726465483682</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79191350956729534</v>
+      </c>
       <c r="C44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48425196810537308</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57296293595804659</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.1490226425929393E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.2653238204859523E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89304881349960386</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40249226381423453</v>
+      </c>
       <c r="C45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92368890827342653</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76172557133751362</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11089022158722996</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.8325300014847505E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15964823553357677</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34833669199193296</v>
+      </c>
       <c r="C46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42624781930264244</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26201264815151093</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7552086177215379E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1618874485360233E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74837903553558727</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41792901396122573</v>
+      </c>
       <c r="C47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57300528186427802</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36393749761782468</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.9332813375697087E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.0384712357765403E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83326237218803967</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96112773964408005</v>
+      </c>
       <c r="C48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2986382597185756</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87272745693878229</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.5053049379862874E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15367652439549487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64721022233956327</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59488755870247345</v>
+      </c>
       <c r="C49">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0380970526927991E-2</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86659869073070639</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.17949369516166735</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3968418613849478E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76121210277603435</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9023309428566253</v>
+      </c>
       <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5693920090802216E-2</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40072407432332124</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.3116138109995227E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1050937115954436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48827310605405527</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24693126424773282</v>
+      </c>
       <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65453964638211082</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.2658694278253684E-3</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.5837879006256464E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9677102252011482E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94118197246881752</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50716871185523971</v>
+      </c>
       <c r="C52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91370745915511953</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97296466114287039</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19566900823157901</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.16270643635525E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87964073644337326</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85410105092496624</v>
+      </c>
       <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5286937933274687E-2</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94389612883300733</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.18408952282790206</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13443118374852661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48654854522878188</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74333220673272982</v>
+      </c>
       <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77881344254581863</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41645153177069461</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.3294436046442595E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.2731721732460121E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62569027860734905</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17342625318936855</v>
+      </c>
       <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27286572256349162</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6226475846362569E-2</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1710807656629006E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.1047145222474136E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77030009045015002</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.605069834239093</v>
+      </c>
       <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82109496681765659</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31803891565365994</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.8426788340292878E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8400385698409105E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34002481840085497</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68390612702439402</v>
+      </c>
       <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3790036091489446</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37333991638603559</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5325412982182596E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.9420416067922867E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8650702479547161</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90157360221964178</v>
+      </c>
       <c r="C58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95623178089095728</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57998979451834831</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6493886406207786E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14660257453439315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8587288583862327</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0202843411009908E-2</v>
+      </c>
       <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6695581929431802</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60913840204409642</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8505310231303272E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.1541806433208173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70475133797296818</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5962702708809839E-2</v>
+      </c>
       <c r="C60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67318709365509088</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.975229832109334</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.2303673441212352E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.9107284249190547E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8755134283963496</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7914444504656919</v>
+      </c>
       <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2692972161196624</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23651796020389448</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.0786040083431442E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10944130478146205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99085518816797391</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86537717917734425</v>
+      </c>
       <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39950020021150801</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84384037629973263</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.4555888977322875E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17934728403737882</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68136836373474297</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25512334124676672</v>
+      </c>
       <c r="C63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76835395137698348</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38472174671644643</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.0935374776478321E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.4412878914904946E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52355062375412398</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57495531907294617</v>
+      </c>
       <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42304126040042622</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15668321883876013</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6421226761551717E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7652445178572681E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75821515893358227</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97087094612467351</v>
+      </c>
       <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32720809412187424</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8712096256786954E-2</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9706816046315201E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12158601619078882</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51803908286362244</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97413421972150571</v>
+      </c>
       <c r="C66">
-        <f t="shared" ref="C66:D100" ca="1" si="2">RAND()</f>
-        <v>0.80041806512405977</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.56497479656719041</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E100" ca="1" si="3">(C66-0.5)*(D66-0.5)</f>
-        <v>1.9519602666544743E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.5529464780352074E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:B101" ca="1" si="2">RAND()</f>
+        <v>0.99242510559880137</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25188770221887513</v>
+      </c>
       <c r="C67">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4434195582680367E-2</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8590272251731874E-2</v>
-      </c>
-      <c r="E67">
+        <f t="shared" ref="C67:C101" ca="1" si="3">(A67-0.5)*(B67-0.5)</f>
+        <v>-0.12217672443523167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93940680362123463</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15276077718930892</v>
+      </c>
+      <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18776576433344075</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8509874734947579</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.73525530098509084</v>
-      </c>
-      <c r="E68">
+        <v>-0.15257927698716747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86882872477186524</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76238515831709974</v>
+      </c>
+      <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2571663719005858E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.77382144519354046</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14531683610488622</v>
-      </c>
-      <c r="E69">
+        <v>9.6775183341159865E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.876227779088667</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37249208810223644</v>
+      </c>
+      <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.7119856523577422E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.88547895317630942</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.72261112724329224</v>
-      </c>
-      <c r="E70">
+        <v>-4.7972018509529001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48221706628283878</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17879472207126368</v>
+      </c>
+      <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5811904295142502E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19278821552339198</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9678730514444842E-2</v>
-      </c>
-      <c r="E71">
+        <v>5.7119721670090655E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51419031337448107</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44014628795158861</v>
+      </c>
+      <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13219976509689674</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.93460523492729219</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5993426046346571E-2</v>
-      </c>
-      <c r="E72">
+        <v>-8.4934293059291078E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14412649864817306</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2260278547449448E-2</v>
+      </c>
+      <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.21035179077948138</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.83412099762152525</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39741219521896343</v>
-      </c>
-      <c r="E73">
+        <v>0.14510376231353778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71646228482181151</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48705291737188483</v>
+      </c>
+      <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4276739677242221E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.0097780392281308E-2</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.53520254321024707</v>
-      </c>
-      <c r="E74">
+        <v>-2.8025550874585937E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52408590804382993</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6054229400768053</v>
+      </c>
+      <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.5485676894024315E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.75421975847009515</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.83881141120616942</v>
-      </c>
-      <c r="E75">
+        <v>2.5392072404001255E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89063458346535196</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43752213640803705</v>
+      </c>
+      <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6132555123744473E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.4492729305179335E-2</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.83819624742670407</v>
-      </c>
-      <c r="E76">
+        <v>-2.4406014220051522E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.6885560663380788E-2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.920405504267932E-2</v>
+      </c>
+      <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.15405084962456825</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.91844544510846637</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.62259863479182975</v>
-      </c>
-      <c r="E77">
+        <v>0.208793296247924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88533891687585797</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78923562609377862</v>
+      </c>
+      <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1300840305157511E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.78389369736352277</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.87732408205180645</v>
-      </c>
-      <c r="E78">
+        <v>0.1114537428808873</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13923988386165498</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1570126709081752E-4</v>
+      </c>
+      <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10711992875798458</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.90273018782171444</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.43523312744047038</v>
-      </c>
-      <c r="E79">
+        <v>0.18033831766661948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41441540275683242</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57064877031534167</v>
+      </c>
+      <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.6083574750524408E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21373758818938848</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.7521483541632659E-3</v>
-      </c>
-      <c r="E80">
+        <v>-6.0464465531635701E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3848188127637004E-2</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1661304040877809</v>
+      </c>
+      <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14177084445616114</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60281641630672733</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.53669112019659704</v>
-      </c>
-      <c r="E81">
+        <v>0.1589726130226968</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48663193010051842</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72456529102546308</v>
+      </c>
+      <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7724494888934923E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.2735192023635182E-2</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42659865262138374</v>
-      </c>
-      <c r="E82">
+        <v>-3.0020045074258144E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36683523404789853</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62962537151244646</v>
+      </c>
+      <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3563853014289408E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.62796163372693747</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.72339305206808846</v>
-      </c>
-      <c r="E83">
+        <v>-1.7261532258909133E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21843693094879724</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75505623152830148</v>
+      </c>
+      <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8585739905879409E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11216927480923322</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.54753963013718565</v>
-      </c>
-      <c r="E84">
+        <v>-7.1814415329742712E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92300556362417219</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22899739847354506</v>
+      </c>
+      <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8437329231405543E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.9820465188019909</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35094431057863884</v>
-      </c>
-      <c r="E85">
+        <v>-0.11463560820231503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78989146278222766</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51171908030289226</v>
+      </c>
+      <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.1851776193197894E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.80705846995875163</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60079490041328987</v>
-      </c>
-      <c r="E86">
+        <v>3.3972613314678288E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85593316013336607</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54566048098300213</v>
+      </c>
+      <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0949927900549529E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55010092164109592</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.52072550411856078</v>
-      </c>
-      <c r="E87">
+        <v>1.6252079289489411E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55155552388739204</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32983499473153877</v>
+      </c>
+      <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0383668578162243E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.67722497274388449</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.46537261108450212</v>
-      </c>
-      <c r="E88">
+        <v>-8.7729459939163458E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82292517834167245</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69129818678737831</v>
+      </c>
+      <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.1368380567410003E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.86222383249915857</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7194955169998849</v>
-      </c>
-      <c r="E89">
+        <v>6.1775001084752708E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.83080943751718783</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54385628927135887</v>
+      </c>
+      <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>7.950650738408252E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25672152574365403</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7355488080600554</v>
-      </c>
-      <c r="E90">
+        <v>1.4508074385449307E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50562062372421412</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80789289209134674</v>
+      </c>
+      <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.7303954637751169E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55623789648203814</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20039387258600028</v>
-      </c>
-      <c r="E91">
+        <v>1.7305500938055228E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37210442050876236</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65369025477039733</v>
+      </c>
+      <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6849218378892847E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6855075223099546</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20161688197109451</v>
-      </c>
-      <c r="E92">
+        <v>-1.9656304196015918E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21632822286703934</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95092971307067964</v>
+      </c>
+      <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.5352312924661001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.57859052775082676</v>
-      </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.81190784393176918</v>
-      </c>
-      <c r="E93">
+        <v>-0.12791603306881574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42295986621301962</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42229480950744736</v>
+      </c>
+      <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4513002064220246E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2177520615562374E-2</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35234715743069833</v>
-      </c>
-      <c r="E94">
+        <v>5.986418271489052E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4927802212347262</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85811922197474677</v>
+      </c>
+      <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3169205196158679E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8797954828506267E-2</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.61780397544634758</v>
-      </c>
-      <c r="E95">
+        <v>-2.5855415542496507E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53574935076051677</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81495340340076949</v>
+      </c>
+      <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.961927538733403E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1151825562246912</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3311900944017241E-2</v>
-      </c>
-      <c r="E96">
+        <v>1.1259379691392644E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84081915335639201</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57621716816875967</v>
+      </c>
+      <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18728607019458757</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.51242488724066471</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19756785237968733</v>
-      </c>
-      <c r="E97">
+        <v>2.5976270726498423E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99360075920724389</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64606774303472814</v>
+      </c>
+      <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.7576853321344477E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60220105587052541</v>
-      </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.73889161914094814</v>
-      </c>
-      <c r="E98">
+        <v>7.2099148857630413E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6334825668478286E-2</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45365472852562372</v>
+      </c>
+      <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>2.441497571482432E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1401263700923718E-2</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11787487060708046</v>
-      </c>
-      <c r="E99">
+        <v>1.8707972089145802E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1341596064291117E-2</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14224492059620197</v>
+      </c>
+      <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15613584497806793</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.70740037316763782</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39918122801207734</v>
-      </c>
-      <c r="E100">
+        <v>0.16050982292520083</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29507583368494161</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33393780333163925</v>
+      </c>
+      <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0909850932598152E-2</v>
+        <v>3.4030157208711095E-2</v>
       </c>
     </row>
   </sheetData>
